--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\ET_Branch\Excel\StartConfig\RouterTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cjx\UnityDell\GameServer\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC470956-B4CB-4A69-8FC6-28509B4A0553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -62,22 +61,30 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>游戏区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>机器人区</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>路由区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏一区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏二区</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,11 +470,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -537,17 +544,21 @@
         <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.3">
@@ -557,7 +568,17 @@
       <c r="D8" s="6"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Id</t>
   </si>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>游戏一区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ET2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -474,7 +470,7 @@
   <dimension ref="C2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -551,14 +547,10 @@
       <c r="C7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.3">

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cjx\UnityDell\GameServer\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\UnityPrj\GameServer\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AB19E9-98EC-48DB-8B11-4FBC0E7D541E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16080" windowHeight="8115"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -74,13 +75,17 @@
   </si>
   <si>
     <t>游戏二区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -466,11 +471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -533,7 +538,7 @@
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -547,8 +552,12 @@
       <c r="C7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="F7" s="5" t="s">
         <v>15</v>
       </c>
